--- a/HCI_Course/course_list.xlsx
+++ b/HCI_Course/course_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricksonre\Desktop\HCI-Courses-Project\HCI_Course\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricksonre\Documents\GitHub\HCI-Courses-Project\HCI_Course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A2BC8B-3040-4D33-80FF-4674101B7D9C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645E5601-AFB2-43B6-82F2-E19D13A1F099}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="945" firstSheet="31" activeTab="36" xr2:uid="{0BA3730C-9F6E-7340-A3D8-F8B4A3B27147}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="945" firstSheet="27" activeTab="36" xr2:uid="{0BA3730C-9F6E-7340-A3D8-F8B4A3B27147}"/>
   </bookViews>
   <sheets>
     <sheet name="top20" sheetId="1" r:id="rId1"/>
@@ -3595,45 +3595,6 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3644,6 +3605,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3662,6 +3635,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3993,7 +3993,7 @@
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5" style="16" customWidth="1"/>
     <col min="2" max="2" width="22.25" style="16" customWidth="1"/>
@@ -4002,35 +4002,35 @@
     <col min="5" max="16384" width="11" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="107" t="s">
+    <row r="1" spans="1:12" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="108" t="s">
         <v>490</v>
       </c>
-      <c r="B1" s="108"/>
-    </row>
-    <row r="2" spans="1:12" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="107" t="s">
+      <c r="B1" s="106"/>
+    </row>
+    <row r="2" spans="1:12" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="108" t="s">
         <v>489</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="119" t="s">
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="121"/>
-    </row>
-    <row r="3" spans="1:12" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="109"/>
-      <c r="B3" s="109"/>
-    </row>
-    <row r="4" spans="1:12" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="112"/>
+    </row>
+    <row r="3" spans="1:12" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="122"/>
+      <c r="B3" s="122"/>
+    </row>
+    <row r="4" spans="1:12" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="38" t="s">
         <v>202</v>
       </c>
@@ -4050,32 +4050,32 @@
         <v>203</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20"/>
     </row>
-    <row r="6" spans="1:12" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="38" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="97" t="s">
         <v>483</v>
       </c>
-      <c r="C6" s="107" t="s">
+      <c r="C6" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="122" t="s">
+      <c r="D6" s="106"/>
+      <c r="E6" s="113" t="s">
         <v>199</v>
       </c>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123"/>
-      <c r="L6" s="124"/>
-    </row>
-    <row r="7" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="115"/>
+    </row>
+    <row r="7" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="44">
         <v>1</v>
       </c>
@@ -4098,7 +4098,7 @@
       <c r="K7" s="48"/>
       <c r="L7" s="49"/>
     </row>
-    <row r="8" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="50">
         <v>2</v>
       </c>
@@ -4120,7 +4120,7 @@
       <c r="K8" s="54"/>
       <c r="L8" s="55"/>
     </row>
-    <row r="9" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="50">
         <v>3</v>
       </c>
@@ -4144,7 +4144,7 @@
       <c r="K9" s="54"/>
       <c r="L9" s="55"/>
     </row>
-    <row r="10" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="50">
         <v>3</v>
       </c>
@@ -4166,7 +4166,7 @@
       <c r="K10" s="54"/>
       <c r="L10" s="55"/>
     </row>
-    <row r="11" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="50">
         <v>4</v>
       </c>
@@ -4190,7 +4190,7 @@
       <c r="K11" s="54"/>
       <c r="L11" s="55"/>
     </row>
-    <row r="12" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="50">
         <v>5</v>
       </c>
@@ -4212,17 +4212,17 @@
       <c r="K12" s="54"/>
       <c r="L12" s="55"/>
     </row>
-    <row r="13" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="50">
         <v>6</v>
       </c>
       <c r="B13" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="111" t="s">
+      <c r="C13" s="116" t="s">
         <v>272</v>
       </c>
-      <c r="D13" s="112"/>
+      <c r="D13" s="117"/>
       <c r="E13" s="54"/>
       <c r="F13" s="54"/>
       <c r="G13" s="54"/>
@@ -4232,7 +4232,7 @@
       <c r="K13" s="54"/>
       <c r="L13" s="55"/>
     </row>
-    <row r="14" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="50">
         <v>7</v>
       </c>
@@ -4250,17 +4250,17 @@
       <c r="K14" s="54"/>
       <c r="L14" s="55"/>
     </row>
-    <row r="15" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="50">
         <v>8</v>
       </c>
       <c r="B15" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="111" t="s">
+      <c r="C15" s="116" t="s">
         <v>485</v>
       </c>
-      <c r="D15" s="112"/>
+      <c r="D15" s="117"/>
       <c r="E15" s="54"/>
       <c r="F15" s="54"/>
       <c r="G15" s="54"/>
@@ -4270,17 +4270,17 @@
       <c r="K15" s="54"/>
       <c r="L15" s="55"/>
     </row>
-    <row r="16" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="50">
         <v>9</v>
       </c>
       <c r="B16" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="111" t="s">
+      <c r="C16" s="116" t="s">
         <v>276</v>
       </c>
-      <c r="D16" s="112"/>
+      <c r="D16" s="117"/>
       <c r="E16" s="54" t="s">
         <v>749</v>
       </c>
@@ -4292,7 +4292,7 @@
       <c r="K16" s="54"/>
       <c r="L16" s="55"/>
     </row>
-    <row r="17" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="50">
         <v>10</v>
       </c>
@@ -4317,17 +4317,17 @@
       <c r="K17" s="54"/>
       <c r="L17" s="55"/>
     </row>
-    <row r="18" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="50">
         <v>11</v>
       </c>
       <c r="B18" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="113" t="s">
+      <c r="C18" s="123" t="s">
         <v>619</v>
       </c>
-      <c r="D18" s="114"/>
+      <c r="D18" s="124"/>
       <c r="E18" s="58" t="s">
         <v>556</v>
       </c>
@@ -4340,17 +4340,17 @@
       <c r="K18" s="54"/>
       <c r="L18" s="55"/>
     </row>
-    <row r="19" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="50">
         <v>12</v>
       </c>
       <c r="B19" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="111" t="s">
+      <c r="C19" s="116" t="s">
         <v>491</v>
       </c>
-      <c r="D19" s="112"/>
+      <c r="D19" s="117"/>
       <c r="E19" s="54"/>
       <c r="F19" s="54"/>
       <c r="G19" s="54"/>
@@ -4359,7 +4359,7 @@
       <c r="K19" s="54"/>
       <c r="L19" s="55"/>
     </row>
-    <row r="20" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="50">
         <v>13</v>
       </c>
@@ -4381,7 +4381,7 @@
       <c r="K20" s="54"/>
       <c r="L20" s="55"/>
     </row>
-    <row r="21" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="50">
         <v>14</v>
       </c>
@@ -4403,17 +4403,17 @@
       <c r="K21" s="54"/>
       <c r="L21" s="55"/>
     </row>
-    <row r="22" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="50">
         <v>15</v>
       </c>
       <c r="B22" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="111" t="s">
+      <c r="C22" s="116" t="s">
         <v>324</v>
       </c>
-      <c r="D22" s="112"/>
+      <c r="D22" s="117"/>
       <c r="E22" s="54"/>
       <c r="F22" s="54"/>
       <c r="G22" s="54"/>
@@ -4423,7 +4423,7 @@
       <c r="K22" s="54"/>
       <c r="L22" s="55"/>
     </row>
-    <row r="23" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="50" t="s">
         <v>24</v>
       </c>
@@ -4445,7 +4445,7 @@
       <c r="K23" s="54"/>
       <c r="L23" s="55"/>
     </row>
-    <row r="24" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="50" t="s">
         <v>24</v>
       </c>
@@ -4463,17 +4463,17 @@
       <c r="K24" s="54"/>
       <c r="L24" s="55"/>
     </row>
-    <row r="25" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="50" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="111" t="s">
+      <c r="C25" s="116" t="s">
         <v>379</v>
       </c>
-      <c r="D25" s="112"/>
+      <c r="D25" s="117"/>
       <c r="E25" s="54"/>
       <c r="F25" s="54"/>
       <c r="G25" s="54"/>
@@ -4483,7 +4483,7 @@
       <c r="K25" s="54"/>
       <c r="L25" s="55"/>
     </row>
-    <row r="26" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="50">
         <v>19</v>
       </c>
@@ -4501,7 +4501,7 @@
       <c r="K26" s="54"/>
       <c r="L26" s="55"/>
     </row>
-    <row r="27" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="50" t="s">
         <v>23</v>
       </c>
@@ -4519,7 +4519,7 @@
       <c r="K27" s="54"/>
       <c r="L27" s="55"/>
     </row>
-    <row r="28" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="50" t="s">
         <v>23</v>
       </c>
@@ -4537,17 +4537,17 @@
       <c r="K28" s="54"/>
       <c r="L28" s="55"/>
     </row>
-    <row r="29" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="50" t="s">
         <v>399</v>
       </c>
       <c r="B29" s="51" t="s">
         <v>400</v>
       </c>
-      <c r="C29" s="111" t="s">
+      <c r="C29" s="116" t="s">
         <v>401</v>
       </c>
-      <c r="D29" s="112"/>
+      <c r="D29" s="117"/>
       <c r="E29" s="58"/>
       <c r="F29" s="54"/>
       <c r="G29" s="54"/>
@@ -4557,17 +4557,17 @@
       <c r="K29" s="54"/>
       <c r="L29" s="55"/>
     </row>
-    <row r="30" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="50" t="s">
         <v>399</v>
       </c>
       <c r="B30" s="51" t="s">
         <v>417</v>
       </c>
-      <c r="C30" s="111" t="s">
+      <c r="C30" s="116" t="s">
         <v>406</v>
       </c>
-      <c r="D30" s="112"/>
+      <c r="D30" s="117"/>
       <c r="E30" s="54"/>
       <c r="F30" s="54"/>
       <c r="G30" s="54"/>
@@ -4577,17 +4577,17 @@
       <c r="K30" s="54"/>
       <c r="L30" s="55"/>
     </row>
-    <row r="31" spans="1:12" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="63" t="s">
         <v>399</v>
       </c>
       <c r="B31" s="64" t="s">
         <v>418</v>
       </c>
-      <c r="C31" s="115" t="s">
+      <c r="C31" s="102" t="s">
         <v>419</v>
       </c>
-      <c r="D31" s="116"/>
+      <c r="D31" s="103"/>
       <c r="E31" s="65"/>
       <c r="F31" s="65"/>
       <c r="G31" s="65"/>
@@ -4597,56 +4597,56 @@
       <c r="K31" s="65"/>
       <c r="L31" s="66"/>
     </row>
-    <row r="32" spans="1:12" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="33" spans="1:12" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="102" t="s">
+    <row r="32" spans="1:12" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="1:12" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="118" t="s">
         <v>662</v>
       </c>
-      <c r="B33" s="103"/>
-    </row>
-    <row r="34" spans="1:12" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="107" t="s">
+      <c r="B33" s="119"/>
+    </row>
+    <row r="34" spans="1:12" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="108" t="s">
         <v>663</v>
       </c>
-      <c r="B34" s="110"/>
-      <c r="C34" s="110"/>
-      <c r="D34" s="110"/>
-      <c r="E34" s="108"/>
-    </row>
-    <row r="35" spans="1:12" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="36" spans="1:12" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="109"/>
+      <c r="C34" s="109"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="106"/>
+    </row>
+    <row r="35" spans="1:12" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="1:12" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="78" t="s">
         <v>664</v>
       </c>
       <c r="B36" s="78" t="s">
         <v>483</v>
       </c>
-      <c r="C36" s="104" t="s">
+      <c r="C36" s="107" t="s">
         <v>665</v>
       </c>
-      <c r="D36" s="104"/>
-      <c r="E36" s="108" t="s">
+      <c r="D36" s="107"/>
+      <c r="E36" s="106" t="s">
         <v>199</v>
       </c>
-      <c r="F36" s="104"/>
-      <c r="G36" s="104"/>
-      <c r="H36" s="104"/>
-      <c r="I36" s="104"/>
-      <c r="J36" s="104"/>
-      <c r="K36" s="104"/>
-      <c r="L36" s="104"/>
-    </row>
-    <row r="37" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F36" s="107"/>
+      <c r="G36" s="107"/>
+      <c r="H36" s="107"/>
+      <c r="I36" s="107"/>
+      <c r="J36" s="107"/>
+      <c r="K36" s="107"/>
+      <c r="L36" s="107"/>
+    </row>
+    <row r="37" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="67">
         <v>1</v>
       </c>
       <c r="B37" s="79" t="s">
         <v>666</v>
       </c>
-      <c r="C37" s="105" t="s">
+      <c r="C37" s="120" t="s">
         <v>787</v>
       </c>
-      <c r="D37" s="106"/>
+      <c r="D37" s="121"/>
       <c r="E37" s="82" t="s">
         <v>749</v>
       </c>
@@ -4658,7 +4658,7 @@
       <c r="K37" s="82"/>
       <c r="L37" s="83"/>
     </row>
-    <row r="38" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="68">
         <v>2</v>
       </c>
@@ -4680,7 +4680,7 @@
       <c r="K38" s="82"/>
       <c r="L38" s="83"/>
     </row>
-    <row r="39" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="68">
         <v>3</v>
       </c>
@@ -4702,7 +4702,7 @@
       <c r="K39" s="82"/>
       <c r="L39" s="83"/>
     </row>
-    <row r="40" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="69">
         <v>4</v>
       </c>
@@ -4720,7 +4720,7 @@
       <c r="K40" s="82"/>
       <c r="L40" s="83"/>
     </row>
-    <row r="41" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="69">
         <v>5</v>
       </c>
@@ -4738,7 +4738,7 @@
       <c r="K41" s="82"/>
       <c r="L41" s="83"/>
     </row>
-    <row r="42" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="69">
         <v>6</v>
       </c>
@@ -4756,17 +4756,17 @@
       <c r="K42" s="82"/>
       <c r="L42" s="83"/>
     </row>
-    <row r="43" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="69">
         <v>7</v>
       </c>
       <c r="B43" s="80" t="s">
         <v>672</v>
       </c>
-      <c r="C43" s="117" t="s">
+      <c r="C43" s="104" t="s">
         <v>750</v>
       </c>
-      <c r="D43" s="118"/>
+      <c r="D43" s="105"/>
       <c r="E43" s="82"/>
       <c r="F43" s="82"/>
       <c r="G43" s="82"/>
@@ -4776,17 +4776,17 @@
       <c r="K43" s="82"/>
       <c r="L43" s="83"/>
     </row>
-    <row r="44" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="69">
         <v>8</v>
       </c>
       <c r="B44" s="80" t="s">
         <v>673</v>
       </c>
-      <c r="C44" s="111" t="s">
+      <c r="C44" s="116" t="s">
         <v>781</v>
       </c>
-      <c r="D44" s="112"/>
+      <c r="D44" s="117"/>
       <c r="E44" s="82"/>
       <c r="F44" s="82"/>
       <c r="G44" s="82"/>
@@ -4796,17 +4796,17 @@
       <c r="K44" s="82"/>
       <c r="L44" s="83"/>
     </row>
-    <row r="45" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="69">
         <v>9</v>
       </c>
       <c r="B45" s="80" t="s">
         <v>674</v>
       </c>
-      <c r="C45" s="117" t="s">
+      <c r="C45" s="104" t="s">
         <v>782</v>
       </c>
-      <c r="D45" s="118"/>
+      <c r="D45" s="105"/>
       <c r="E45" s="82"/>
       <c r="F45" s="82"/>
       <c r="G45" s="82"/>
@@ -4816,17 +4816,17 @@
       <c r="K45" s="82"/>
       <c r="L45" s="83"/>
     </row>
-    <row r="46" spans="1:12" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:12" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="70">
         <v>10</v>
       </c>
       <c r="B46" s="84" t="s">
         <v>675</v>
       </c>
-      <c r="C46" s="115" t="s">
+      <c r="C46" s="102" t="s">
         <v>786</v>
       </c>
-      <c r="D46" s="116"/>
+      <c r="D46" s="103"/>
       <c r="E46" s="100"/>
       <c r="F46" s="85"/>
       <c r="G46" s="85"/>
@@ -4838,6 +4838,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="E36:L36"/>
@@ -4854,15 +4863,6 @@
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C44:D44"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{585D3C94-9DFE-2D49-96C3-7A9EFF89E757}"/>
@@ -4883,14 +4883,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="24.25" style="16" customWidth="1"/>
     <col min="3" max="3" width="35.25" style="16" customWidth="1"/>
     <col min="4" max="16384" width="11" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>35</v>
       </c>
@@ -4898,17 +4898,17 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="26" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>30</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>31</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>32</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>39</v>
       </c>
@@ -4943,12 +4943,12 @@
         <v>499</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="21" t="s">
         <v>507</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="21" t="s">
         <v>508</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="21" t="s">
         <v>509</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="21" t="s">
         <v>510</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
         <v>511</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="21" t="s">
         <v>307</v>
       </c>
@@ -4996,43 +4996,43 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="20"/>
     </row>
-    <row r="16" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="16" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="16" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="16" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>64</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
         <v>65</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>66</v>
       </c>
@@ -5056,7 +5056,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
         <v>67</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>68</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
         <v>69</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
         <v>70</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="16" t="s">
         <v>71</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="16" t="s">
         <v>72</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="16" t="s">
         <v>73</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
         <v>74</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
         <v>75</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="16" t="s">
         <v>76</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="16" t="s">
         <v>243</v>
       </c>
@@ -5163,9 +5163,9 @@
       <selection activeCell="AV15" sqref="AV15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -5173,17 +5173,17 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>31</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>32</v>
       </c>
@@ -5207,129 +5207,129 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>59</v>
       </c>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>76</v>
       </c>
@@ -5350,14 +5350,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.08203125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="27.125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="23.875" style="16" customWidth="1"/>
     <col min="3" max="16384" width="11" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>35</v>
       </c>
@@ -5365,17 +5365,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>30</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>31</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>32</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>39</v>
       </c>
@@ -5407,13 +5407,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>59</v>
       </c>
       <c r="B8" s="20"/>
     </row>
-    <row r="9" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16" t="s">
         <v>816</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="16" t="s">
         <v>817</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="16" t="s">
         <v>60</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="16" t="s">
         <v>61</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="16" t="s">
         <v>62</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
         <v>63</v>
       </c>
@@ -5461,98 +5461,98 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="20"/>
     </row>
-    <row r="16" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
         <v>64</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="16" t="s">
         <v>65</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="16" t="s">
         <v>66</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="36" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="16" t="s">
         <v>67</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="37" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
         <v>68</v>
       </c>
@@ -5592,7 +5592,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="38" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="16" t="s">
         <v>69</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="39" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="16" t="s">
         <v>70</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="40" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="16" t="s">
         <v>71</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="41" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="16" t="s">
         <v>72</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="42" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="16" t="s">
         <v>73</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="43" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
         <v>74</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="44" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="16" t="s">
         <v>75</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="45" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="16" t="s">
         <v>76</v>
       </c>
@@ -5675,14 +5675,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.75" style="16" customWidth="1"/>
     <col min="2" max="2" width="29.5" style="16" customWidth="1"/>
     <col min="3" max="16384" width="11" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>35</v>
       </c>
@@ -5690,17 +5690,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>30</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>31</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>32</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>39</v>
       </c>
@@ -5732,13 +5732,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>59</v>
       </c>
       <c r="B8" s="20"/>
     </row>
-    <row r="9" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16" t="s">
         <v>88</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="16" t="s">
         <v>89</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="16" t="s">
         <v>90</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="16" t="s">
         <v>62</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="16" t="s">
         <v>91</v>
       </c>
@@ -5778,72 +5778,72 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="26" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="26" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="26" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="26" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="26" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="26" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="26" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="26" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="26" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="26" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
         <v>64</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
         <v>65</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="16" t="s">
         <v>66</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="16" t="s">
         <v>67</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="16" t="s">
         <v>68</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
         <v>69</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
         <v>70</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="16" t="s">
         <v>71</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="16" t="s">
         <v>72</v>
       </c>
@@ -5915,7 +5915,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="36" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="16" t="s">
         <v>73</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="37" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
         <v>74</v>
       </c>
@@ -5931,7 +5931,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="38" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="16" t="s">
         <v>75</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="39" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="16" t="s">
         <v>76</v>
       </c>
@@ -5966,13 +5966,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" style="16" customWidth="1"/>
     <col min="2" max="16384" width="11" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>35</v>
       </c>
@@ -5980,17 +5980,17 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="26" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>30</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>31</v>
       </c>
@@ -6006,7 +6006,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>32</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>39</v>
       </c>
@@ -6022,13 +6022,13 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>59</v>
       </c>
       <c r="B8" s="20"/>
     </row>
-    <row r="9" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16" t="s">
         <v>105</v>
       </c>
@@ -6036,7 +6036,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="16" t="s">
         <v>61</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="16" t="s">
         <v>106</v>
       </c>
@@ -6052,42 +6052,42 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
         <v>40</v>
       </c>
       <c r="B12" s="20"/>
     </row>
-    <row r="13" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="14"/>
     </row>
-    <row r="14" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="14"/>
     </row>
-    <row r="15" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="14"/>
     </row>
-    <row r="16" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="14"/>
     </row>
-    <row r="17" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="14"/>
     </row>
-    <row r="18" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="14"/>
     </row>
-    <row r="19" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="14"/>
     </row>
-    <row r="20" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="14"/>
     </row>
-    <row r="21" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>64</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
         <v>65</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>66</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
         <v>67</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>68</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
         <v>69</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
         <v>70</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="16" t="s">
         <v>71</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="16" t="s">
         <v>72</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="16" t="s">
         <v>73</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
         <v>74</v>
       </c>
@@ -6175,7 +6175,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
         <v>75</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="16" t="s">
         <v>76</v>
       </c>
@@ -6210,14 +6210,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.5" style="16" customWidth="1"/>
     <col min="2" max="2" width="27.75" style="16" customWidth="1"/>
     <col min="3" max="16384" width="11" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>35</v>
       </c>
@@ -6225,22 +6225,22 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="26" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="29" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>31</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>32</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>39</v>
       </c>
@@ -6264,13 +6264,13 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>59</v>
       </c>
       <c r="B8" s="20"/>
     </row>
-    <row r="9" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16" t="s">
         <v>119</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="16" t="s">
         <v>105</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="16" t="s">
         <v>92</v>
       </c>
@@ -6294,7 +6294,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="16" t="s">
         <v>121</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="16" t="s">
         <v>120</v>
       </c>
@@ -6310,63 +6310,63 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="20"/>
     </row>
-    <row r="15" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="30" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="28" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="28" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="28" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="28" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="28" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="28" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="28" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="28" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
         <v>64</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>65</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>66</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>67</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>68</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>69</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="23" t="s">
         <v>70</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="23" t="s">
         <v>71</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="23" t="s">
         <v>72</v>
       </c>
@@ -6438,7 +6438,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="23" t="s">
         <v>73</v>
       </c>
@@ -6446,7 +6446,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="23" t="s">
         <v>74</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="36" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="23" t="s">
         <v>75</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="37" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="23" t="s">
         <v>76</v>
       </c>
@@ -6489,14 +6489,14 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32" style="16" customWidth="1"/>
     <col min="2" max="2" width="26.75" style="16" customWidth="1"/>
     <col min="3" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>35</v>
       </c>
@@ -6504,17 +6504,17 @@
         <v>541</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" s="22" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>30</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>31</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>32</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>39</v>
       </c>
@@ -6546,12 +6546,12 @@
         <v>542</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="21" t="s">
         <v>549</v>
       </c>
@@ -6559,7 +6559,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="21" t="s">
         <v>553</v>
       </c>
@@ -6567,7 +6567,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="21" t="s">
         <v>61</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="21" t="s">
         <v>550</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
         <v>551</v>
       </c>
@@ -6591,7 +6591,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" s="21" t="s">
         <v>552</v>
       </c>
@@ -6600,46 +6600,46 @@
       </c>
       <c r="E14" s="21"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
         <v>40</v>
       </c>
       <c r="B16" s="20"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B17" s="25" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B18" s="15" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B19" s="15" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B20" s="15" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B22" s="14"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>64</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
         <v>65</v>
       </c>
@@ -6655,7 +6655,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
         <v>66</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B29" s="16" t="s">
         <v>67</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B30" s="16" t="s">
         <v>68</v>
       </c>
@@ -6679,7 +6679,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B31" s="16" t="s">
         <v>69</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
         <v>70</v>
       </c>
@@ -6695,7 +6695,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
         <v>71</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="16" t="s">
         <v>72</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" s="16" t="s">
         <v>73</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="16" t="s">
         <v>74</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
         <v>75</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" s="16" t="s">
         <v>76</v>
       </c>
@@ -6743,7 +6743,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39" s="16" t="s">
         <v>243</v>
       </c>
@@ -6767,17 +6767,17 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:C35"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32" style="16" customWidth="1"/>
     <col min="2" max="2" width="26.75" style="16" customWidth="1"/>
     <col min="3" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>35</v>
       </c>
@@ -6785,17 +6785,17 @@
         <v>558</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="22" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>30</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>31</v>
       </c>
@@ -6811,7 +6811,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>32</v>
       </c>
@@ -6819,18 +6819,18 @@
         <v>548</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="20"/>
     </row>
-    <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="21" t="s">
         <v>130</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="21" t="s">
         <v>508</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="21" t="s">
         <v>561</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="21" t="s">
         <v>562</v>
       </c>
@@ -6862,7 +6862,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
         <v>219</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
         <v>40</v>
       </c>
@@ -6878,47 +6878,47 @@
       <c r="C14" s="21"/>
       <c r="E14" s="21"/>
     </row>
-    <row r="15" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="15" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="15" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="15" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="16" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
         <v>64</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>65</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
         <v>66</v>
       </c>
@@ -6942,7 +6942,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>67</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
         <v>68</v>
       </c>
@@ -6958,7 +6958,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
         <v>69</v>
       </c>
@@ -6966,7 +6966,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="16" t="s">
         <v>70</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="16" t="s">
         <v>71</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="16" t="s">
         <v>72</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
         <v>73</v>
       </c>
@@ -6998,7 +6998,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
         <v>74</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="16" t="s">
         <v>75</v>
       </c>
@@ -7014,7 +7014,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="16" t="s">
         <v>76</v>
       </c>
@@ -7038,13 +7038,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.08203125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="27.125" style="16" customWidth="1"/>
     <col min="2" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>35</v>
       </c>
@@ -7052,17 +7052,17 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="26" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="29" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>30</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>31</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>32</v>
       </c>
@@ -7086,129 +7086,129 @@
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="20"/>
     </row>
-    <row r="8" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
         <v>59</v>
       </c>
       <c r="B8" s="20"/>
     </row>
-    <row r="9" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="21"/>
     </row>
-    <row r="10" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="21"/>
     </row>
-    <row r="11" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="21"/>
     </row>
-    <row r="12" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="21"/>
     </row>
-    <row r="13" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="21"/>
     </row>
-    <row r="14" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="20"/>
     </row>
-    <row r="15" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="14"/>
     </row>
-    <row r="16" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="14"/>
     </row>
-    <row r="17" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="14"/>
     </row>
-    <row r="18" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="14"/>
     </row>
-    <row r="19" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="14"/>
     </row>
-    <row r="20" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="14"/>
     </row>
-    <row r="21" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="14"/>
     </row>
-    <row r="22" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="14"/>
     </row>
-    <row r="23" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="16" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="16" t="s">
         <v>76</v>
       </c>
@@ -7229,15 +7229,15 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" style="16" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="16" customWidth="1"/>
     <col min="3" max="3" width="22.5" style="16" customWidth="1"/>
     <col min="4" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>35</v>
       </c>
@@ -7245,17 +7245,17 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="26" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="29" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>30</v>
       </c>
@@ -7263,7 +7263,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>31</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>32</v>
       </c>
@@ -7279,7 +7279,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>39</v>
       </c>
@@ -7287,13 +7287,13 @@
         <v>214</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>59</v>
       </c>
       <c r="B8" s="20"/>
     </row>
-    <row r="9" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16" t="s">
         <v>215</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="16" t="s">
         <v>216</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="32" t="s">
         <v>217</v>
       </c>
@@ -7317,7 +7317,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="32" t="s">
         <v>218</v>
       </c>
@@ -7325,7 +7325,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="26" t="s">
         <v>219</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="34" t="s">
         <v>220</v>
       </c>
@@ -7341,7 +7341,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="34" t="s">
         <v>221</v>
       </c>
@@ -7349,53 +7349,53 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="26"/>
     </row>
-    <row r="18" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="16" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="16" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>64</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
         <v>65</v>
       </c>
@@ -7411,7 +7411,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
         <v>66</v>
       </c>
@@ -7419,7 +7419,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="16" t="s">
         <v>67</v>
       </c>
@@ -7427,7 +7427,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="16" t="s">
         <v>68</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="16" t="s">
         <v>69</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
         <v>70</v>
       </c>
@@ -7451,7 +7451,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
         <v>71</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="16" t="s">
         <v>72</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="16" t="s">
         <v>73</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="36" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="16" t="s">
         <v>74</v>
       </c>
@@ -7483,7 +7483,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="37" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
         <v>75</v>
       </c>
@@ -7491,7 +7491,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="38" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="16" t="s">
         <v>76</v>
       </c>
@@ -7499,7 +7499,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="39" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="16" t="s">
         <v>243</v>
       </c>
@@ -7526,14 +7526,14 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" style="16" customWidth="1"/>
-    <col min="2" max="2" width="20.58203125" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="8.58203125" style="16"/>
+    <col min="2" max="2" width="20.625" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="8.625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>35</v>
       </c>
@@ -7541,15 +7541,15 @@
         <v>678</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="28" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19"/>
     </row>
-    <row r="4" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>30</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>31</v>
       </c>
@@ -7565,7 +7565,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>32</v>
       </c>
@@ -7573,7 +7573,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>39</v>
       </c>
@@ -7581,13 +7581,13 @@
         <v>711</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>59</v>
       </c>
       <c r="J8" s="37"/>
     </row>
-    <row r="9" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="21" t="s">
         <v>105</v>
       </c>
@@ -7596,7 +7596,7 @@
       </c>
       <c r="J9" s="37"/>
     </row>
-    <row r="10" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="21" t="s">
         <v>129</v>
       </c>
@@ -7605,7 +7605,7 @@
       </c>
       <c r="J10" s="37"/>
     </row>
-    <row r="11" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="21" t="s">
         <v>61</v>
       </c>
@@ -7614,7 +7614,7 @@
       </c>
       <c r="J11" s="37"/>
     </row>
-    <row r="12" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="21" t="s">
         <v>130</v>
       </c>
@@ -7623,42 +7623,42 @@
       </c>
       <c r="J12" s="37"/>
     </row>
-    <row r="13" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J13" s="37"/>
     </row>
-    <row r="14" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="J14" s="37"/>
     </row>
-    <row r="15" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="20"/>
       <c r="J15" s="37"/>
     </row>
-    <row r="16" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="16" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="16" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>64</v>
       </c>
@@ -7666,7 +7666,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
         <v>65</v>
       </c>
@@ -7674,7 +7674,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>66</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
         <v>67</v>
       </c>
@@ -7690,7 +7690,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>68</v>
       </c>
@@ -7698,7 +7698,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
         <v>69</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
         <v>70</v>
       </c>
@@ -7714,7 +7714,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="16" t="s">
         <v>71</v>
       </c>
@@ -7722,7 +7722,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="16" t="s">
         <v>72</v>
       </c>
@@ -7730,7 +7730,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="16" t="s">
         <v>73</v>
       </c>
@@ -7738,7 +7738,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
         <v>74</v>
       </c>
@@ -7746,7 +7746,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
         <v>75</v>
       </c>
@@ -7754,7 +7754,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="16" t="s">
         <v>76</v>
       </c>
@@ -7781,14 +7781,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" style="16" customWidth="1"/>
-    <col min="2" max="2" width="17.58203125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="17.625" style="16" customWidth="1"/>
     <col min="3" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>35</v>
       </c>
@@ -7796,17 +7796,17 @@
         <v>245</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="26" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="29" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>30</v>
       </c>
@@ -7814,7 +7814,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>31</v>
       </c>
@@ -7822,7 +7822,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>32</v>
       </c>
@@ -7830,7 +7830,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>39</v>
       </c>
@@ -7838,13 +7838,13 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>59</v>
       </c>
       <c r="B8" s="20"/>
     </row>
-    <row r="9" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16" t="s">
         <v>247</v>
       </c>
@@ -7852,7 +7852,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="16" t="s">
         <v>248</v>
       </c>
@@ -7860,7 +7860,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="32" t="s">
         <v>249</v>
       </c>
@@ -7868,7 +7868,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="32" t="s">
         <v>250</v>
       </c>
@@ -7876,7 +7876,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="26" t="s">
         <v>251</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="32" t="s">
         <v>131</v>
       </c>
@@ -7892,43 +7892,43 @@
         <v>818</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="26"/>
     </row>
-    <row r="16" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="16" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="16" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="16" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>64</v>
       </c>
@@ -7936,7 +7936,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
         <v>65</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>66</v>
       </c>
@@ -7952,7 +7952,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
         <v>67</v>
       </c>
@@ -7960,7 +7960,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>68</v>
       </c>
@@ -7968,7 +7968,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
         <v>69</v>
       </c>
@@ -7976,7 +7976,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
         <v>70</v>
       </c>
@@ -7984,7 +7984,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="16" t="s">
         <v>71</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="16" t="s">
         <v>72</v>
       </c>
@@ -8000,7 +8000,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="16" t="s">
         <v>73</v>
       </c>
@@ -8008,7 +8008,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
         <v>74</v>
       </c>
@@ -8016,7 +8016,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
         <v>75</v>
       </c>
@@ -8043,14 +8043,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.5" style="16" customWidth="1"/>
-    <col min="2" max="2" width="14.58203125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="16" customWidth="1"/>
     <col min="3" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>35</v>
       </c>
@@ -8058,17 +8058,17 @@
         <v>583</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="26" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="29" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>30</v>
       </c>
@@ -8076,7 +8076,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>31</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>32</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>39</v>
       </c>
@@ -8100,66 +8100,66 @@
         <v>585</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>59</v>
       </c>
       <c r="B8" s="20"/>
     </row>
-    <row r="9" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="25" t="s">
         <v>588</v>
       </c>
       <c r="C9" s="21"/>
     </row>
-    <row r="10" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="25" t="s">
         <v>589</v>
       </c>
       <c r="C10" s="21"/>
     </row>
-    <row r="11" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="34" t="s">
         <v>590</v>
       </c>
       <c r="C11" s="21"/>
     </row>
-    <row r="12" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="34" t="s">
         <v>591</v>
       </c>
       <c r="C12" s="21"/>
     </row>
-    <row r="13" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="22" t="s">
         <v>592</v>
       </c>
       <c r="C13" s="21"/>
     </row>
-    <row r="14" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="34" t="s">
         <v>593</v>
       </c>
       <c r="C14" s="21"/>
     </row>
-    <row r="15" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="34" t="s">
         <v>594</v>
       </c>
       <c r="C15" s="21"/>
     </row>
-    <row r="16" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="25" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="26"/>
     </row>
-    <row r="18" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>508</v>
       </c>
@@ -8167,7 +8167,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="16" t="s">
         <v>586</v>
       </c>
@@ -8175,7 +8175,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>587</v>
       </c>
@@ -8183,42 +8183,42 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="16" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="16" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="16" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="25" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="25" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="25" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="25" t="s">
         <v>602</v>
       </c>
@@ -8242,12 +8242,12 @@
       <selection activeCell="B25" sqref="B25:B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="1" max="1" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -8255,93 +8255,93 @@
         <v>277</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="6"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="12"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="13"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="13"/>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="10"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="11"/>
     </row>
-    <row r="19" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B19" s="11"/>
     </row>
-    <row r="20" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B20" s="11"/>
     </row>
-    <row r="21" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B21" s="11"/>
     </row>
-    <row r="22" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
     </row>
-    <row r="23" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="11"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>41</v>
       </c>
@@ -8362,14 +8362,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" style="16" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="16.875" style="16" customWidth="1"/>
     <col min="3" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>35</v>
       </c>
@@ -8377,15 +8377,15 @@
         <v>459</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" s="35" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" s="19"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>30</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>31</v>
       </c>
@@ -8401,7 +8401,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>32</v>
       </c>
@@ -8409,20 +8409,20 @@
         <v>458</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>59</v>
       </c>
       <c r="B8" s="20"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="16" t="s">
         <v>332</v>
       </c>
@@ -8431,7 +8431,7 @@
       </c>
       <c r="D9" s="21"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="16" t="s">
         <v>333</v>
       </c>
@@ -8439,7 +8439,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="16" t="s">
         <v>334</v>
       </c>
@@ -8447,7 +8447,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" s="16" t="s">
         <v>335</v>
       </c>
@@ -8455,7 +8455,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" s="16" t="s">
         <v>130</v>
       </c>
@@ -8463,58 +8463,58 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="14"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B21" s="16" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>318</v>
       </c>
@@ -8522,7 +8522,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
         <v>319</v>
       </c>
@@ -8530,7 +8530,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>320</v>
       </c>
@@ -8538,7 +8538,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
         <v>321</v>
       </c>
@@ -8546,7 +8546,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
         <v>322</v>
       </c>
@@ -8554,7 +8554,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B29" s="16" t="s">
         <v>323</v>
       </c>
@@ -8562,7 +8562,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B30" s="16" t="s">
         <v>349</v>
       </c>
@@ -8570,7 +8570,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B31" s="16" t="s">
         <v>350</v>
       </c>
@@ -8578,7 +8578,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
         <v>351</v>
       </c>
@@ -8586,7 +8586,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
         <v>352</v>
       </c>
@@ -8594,7 +8594,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="16" t="s">
         <v>353</v>
       </c>
@@ -8602,7 +8602,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" s="16" t="s">
         <v>354</v>
       </c>
@@ -8610,7 +8610,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="16" t="s">
         <v>355</v>
       </c>
@@ -8634,13 +8634,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" style="16" customWidth="1"/>
     <col min="2" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>35</v>
       </c>
@@ -8648,17 +8648,17 @@
         <v>279</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" s="26" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" s="29" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>30</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>31</v>
       </c>
@@ -8674,112 +8674,112 @@
         <v>383</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="33"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="20"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>59</v>
       </c>
       <c r="B8" s="20"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C9" s="21"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C10" s="21"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" s="34"/>
       <c r="C11" s="21"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" s="34"/>
       <c r="C12" s="21"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" s="26"/>
       <c r="C13" s="21"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" s="32"/>
       <c r="C14" s="21"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" s="32"/>
       <c r="C15" s="21"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="26"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B29" s="16" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B30" s="16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B31" s="16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="16" t="s">
         <v>74</v>
       </c>
@@ -8800,14 +8800,14 @@
       <selection activeCell="S38" sqref="S38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" style="16" customWidth="1"/>
-    <col min="2" max="2" width="20.58203125" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="8.58203125" style="16"/>
+    <col min="2" max="2" width="20.625" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="8.625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>35</v>
       </c>
@@ -8815,17 +8815,17 @@
         <v>819</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="28" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>30</v>
       </c>
@@ -8833,94 +8833,94 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>59</v>
       </c>
       <c r="J8" s="37"/>
     </row>
-    <row r="9" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="21"/>
       <c r="C9" s="21">
         <v>0.1</v>
       </c>
       <c r="J9" s="37"/>
     </row>
-    <row r="10" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="21"/>
       <c r="C10" s="21">
         <v>0.1</v>
       </c>
       <c r="J10" s="37"/>
     </row>
-    <row r="11" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="21"/>
       <c r="C11" s="21">
         <v>0.2</v>
       </c>
       <c r="J11" s="37"/>
     </row>
-    <row r="12" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="21"/>
       <c r="C12" s="21">
         <v>0.6</v>
       </c>
       <c r="J12" s="37"/>
     </row>
-    <row r="13" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J13" s="37"/>
     </row>
-    <row r="14" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="J14" s="37"/>
     </row>
-    <row r="15" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="20"/>
       <c r="J15" s="37"/>
     </row>
-    <row r="16" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="17" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="18" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="21" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="23" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="24" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="25" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="25"/>
     </row>
-    <row r="26" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="27" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="29" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="30" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="22" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="22" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="26" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8937,14 +8937,14 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32" style="16" customWidth="1"/>
     <col min="2" max="2" width="26.75" style="16" customWidth="1"/>
     <col min="3" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>35</v>
       </c>
@@ -8952,17 +8952,17 @@
         <v>603</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="22" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>30</v>
       </c>
@@ -8970,7 +8970,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>31</v>
       </c>
@@ -8978,7 +8978,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>32</v>
       </c>
@@ -8989,114 +8989,114 @@
         <v>608</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="20"/>
     </row>
-    <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
     </row>
-    <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
     </row>
-    <row r="11" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="21"/>
       <c r="C11" s="24"/>
     </row>
-    <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="21"/>
       <c r="C12" s="24"/>
     </row>
-    <row r="13" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
     </row>
-    <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="E14" s="21"/>
     </row>
-    <row r="16" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
         <v>40</v>
       </c>
       <c r="B16" s="20"/>
     </row>
-    <row r="17" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="16" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="15"/>
     </row>
-    <row r="19" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="15"/>
     </row>
-    <row r="20" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="15"/>
     </row>
-    <row r="21" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="14"/>
     </row>
-    <row r="22" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="14"/>
     </row>
-    <row r="25" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="16" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="16" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="16" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="16" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="16" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="16" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="16" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="33" spans="3:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="16" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="34" spans="3:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="16" t="s">
         <v>618</v>
       </c>
@@ -9117,13 +9117,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.25" style="16" customWidth="1"/>
     <col min="2" max="16384" width="11" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>35</v>
       </c>
@@ -9131,17 +9131,17 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="22" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>30</v>
       </c>
@@ -9149,7 +9149,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>31</v>
       </c>
@@ -9157,7 +9157,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>32</v>
       </c>
@@ -9165,7 +9165,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>39</v>
       </c>
@@ -9173,13 +9173,13 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>59</v>
       </c>
       <c r="B8" s="20"/>
     </row>
-    <row r="9" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16" t="s">
         <v>105</v>
       </c>
@@ -9187,7 +9187,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="16" t="s">
         <v>129</v>
       </c>
@@ -9195,7 +9195,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="16" t="s">
         <v>130</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="16" t="s">
         <v>61</v>
       </c>
@@ -9211,7 +9211,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="16" t="s">
         <v>131</v>
       </c>
@@ -9219,53 +9219,53 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="20"/>
     </row>
-    <row r="15" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="16" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="16" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="16" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="16" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="16" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
         <v>64</v>
       </c>
@@ -9273,7 +9273,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>65</v>
       </c>
@@ -9281,7 +9281,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
         <v>66</v>
       </c>
@@ -9289,7 +9289,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>67</v>
       </c>
@@ -9297,7 +9297,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
         <v>68</v>
       </c>
@@ -9305,7 +9305,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
         <v>69</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="16" t="s">
         <v>70</v>
       </c>
@@ -9321,7 +9321,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="16" t="s">
         <v>71</v>
       </c>
@@ -9329,7 +9329,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="16" t="s">
         <v>72</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
         <v>73</v>
       </c>
@@ -9345,7 +9345,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
         <v>74</v>
       </c>
@@ -9353,7 +9353,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="16" t="s">
         <v>75</v>
       </c>
@@ -9361,7 +9361,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="16" t="s">
         <v>76</v>
       </c>
@@ -9384,16 +9384,16 @@
   </sheetPr>
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16384" width="11" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>35</v>
       </c>
@@ -9401,17 +9401,17 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="28" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>30</v>
       </c>
@@ -9419,7 +9419,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>31</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>32</v>
       </c>
@@ -9435,7 +9435,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>39</v>
       </c>
@@ -9443,13 +9443,13 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>59</v>
       </c>
       <c r="B8" s="20"/>
     </row>
-    <row r="9" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16" t="s">
         <v>130</v>
       </c>
@@ -9457,7 +9457,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="16" t="s">
         <v>151</v>
       </c>
@@ -9465,7 +9465,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="16" t="s">
         <v>152</v>
       </c>
@@ -9473,7 +9473,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="16" t="s">
         <v>153</v>
       </c>
@@ -9481,63 +9481,63 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
         <v>40</v>
       </c>
       <c r="B13" s="20"/>
     </row>
-    <row r="14" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="28" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="28" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="16" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="16" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="16" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="16" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>64</v>
       </c>
@@ -9545,7 +9545,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
         <v>65</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>66</v>
       </c>
@@ -9561,7 +9561,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
         <v>67</v>
       </c>
@@ -9569,7 +9569,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
         <v>68</v>
       </c>
@@ -9577,7 +9577,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="16" t="s">
         <v>69</v>
       </c>
@@ -9585,7 +9585,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="16" t="s">
         <v>70</v>
       </c>
@@ -9593,7 +9593,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="16" t="s">
         <v>71</v>
       </c>
@@ -9601,7 +9601,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
         <v>72</v>
       </c>
@@ -9609,7 +9609,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
         <v>73</v>
       </c>
@@ -9617,7 +9617,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="16" t="s">
         <v>74</v>
       </c>
@@ -9625,7 +9625,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="16" t="s">
         <v>75</v>
       </c>
@@ -9633,7 +9633,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="16" t="s">
         <v>76</v>
       </c>
@@ -9657,17 +9657,17 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="21.375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="16" customWidth="1"/>
     <col min="3" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>35</v>
       </c>
@@ -9675,17 +9675,17 @@
         <v>286</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>30</v>
       </c>
@@ -9693,7 +9693,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>31</v>
       </c>
@@ -9701,7 +9701,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>32</v>
       </c>
@@ -9709,7 +9709,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>39</v>
       </c>
@@ -9717,13 +9717,13 @@
         <v>304</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>59</v>
       </c>
       <c r="B8" s="20"/>
     </row>
-    <row r="9" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16" t="s">
         <v>307</v>
       </c>
@@ -9731,7 +9731,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="16" t="s">
         <v>105</v>
       </c>
@@ -9739,7 +9739,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="16" t="s">
         <v>305</v>
       </c>
@@ -9747,7 +9747,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="16" t="s">
         <v>306</v>
       </c>
@@ -9755,94 +9755,94 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="21"/>
     </row>
-    <row r="14" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="20"/>
     </row>
-    <row r="15" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="14"/>
     </row>
-    <row r="23" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="16" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="16" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="16" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="16" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="16" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="16" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="16" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="16" t="s">
         <v>296</v>
       </c>
@@ -9866,15 +9866,15 @@
       <selection activeCell="D20" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" style="16" customWidth="1"/>
-    <col min="2" max="2" width="20.58203125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="17.58203125" style="16" customWidth="1"/>
-    <col min="4" max="16384" width="8.58203125" style="16"/>
+    <col min="2" max="2" width="20.625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="17.625" style="16" customWidth="1"/>
+    <col min="4" max="16384" width="8.625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>35</v>
       </c>
@@ -9882,17 +9882,17 @@
         <v>697</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="28" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>30</v>
       </c>
@@ -9900,7 +9900,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>31</v>
       </c>
@@ -9909,7 +9909,7 @@
       </c>
       <c r="F5" s="71"/>
     </row>
-    <row r="6" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>32</v>
       </c>
@@ -9924,7 +9924,7 @@
       </c>
       <c r="F6" s="72"/>
     </row>
-    <row r="7" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>39</v>
       </c>
@@ -9933,13 +9933,13 @@
       </c>
       <c r="F7" s="72"/>
     </row>
-    <row r="8" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>59</v>
       </c>
       <c r="J8" s="37"/>
     </row>
-    <row r="9" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="21" t="s">
         <v>707</v>
       </c>
@@ -9949,7 +9949,7 @@
       <c r="H9" s="73"/>
       <c r="J9" s="37"/>
     </row>
-    <row r="10" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="21" t="s">
         <v>129</v>
       </c>
@@ -9959,7 +9959,7 @@
       <c r="H10" s="77"/>
       <c r="J10" s="37"/>
     </row>
-    <row r="11" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="21" t="s">
         <v>106</v>
       </c>
@@ -9969,7 +9969,7 @@
       <c r="H11" s="77"/>
       <c r="J11" s="37"/>
     </row>
-    <row r="12" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="21" t="s">
         <v>708</v>
       </c>
@@ -9979,7 +9979,7 @@
       <c r="H12" s="77"/>
       <c r="J12" s="37"/>
     </row>
-    <row r="13" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
         <v>709</v>
       </c>
@@ -9989,7 +9989,7 @@
       <c r="H13" s="73"/>
       <c r="J13" s="37"/>
     </row>
-    <row r="14" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="21" t="s">
         <v>710</v>
       </c>
@@ -9999,7 +9999,7 @@
       <c r="H14" s="73"/>
       <c r="J14" s="37"/>
     </row>
-    <row r="15" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="74" t="s">
         <v>40</v>
       </c>
@@ -10008,49 +10008,49 @@
       <c r="H15" s="73"/>
       <c r="J15" s="37"/>
     </row>
-    <row r="16" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="25"/>
       <c r="B16" s="76" t="s">
         <v>701</v>
       </c>
       <c r="C16" s="25"/>
     </row>
-    <row r="17" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="25"/>
       <c r="B17" s="76" t="s">
         <v>702</v>
       </c>
       <c r="C17" s="25"/>
     </row>
-    <row r="18" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="25"/>
       <c r="B18" s="76" t="s">
         <v>703</v>
       </c>
       <c r="C18" s="25"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="25"/>
       <c r="B19" s="76" t="s">
         <v>704</v>
       </c>
       <c r="C19" s="25"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="25"/>
       <c r="B20" s="76" t="s">
         <v>705</v>
       </c>
       <c r="C20" s="25"/>
     </row>
-    <row r="21" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="74" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
     </row>
-    <row r="22" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="25"/>
       <c r="B22" s="25" t="s">
         <v>64</v>
@@ -10059,7 +10059,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="25"/>
       <c r="B23" s="25" t="s">
         <v>65</v>
@@ -10068,7 +10068,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="25"/>
       <c r="B24" s="25" t="s">
         <v>66</v>
@@ -10077,7 +10077,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="25"/>
       <c r="B25" s="25" t="s">
         <v>67</v>
@@ -10086,7 +10086,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="25"/>
       <c r="B26" s="25" t="s">
         <v>68</v>
@@ -10095,7 +10095,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="25"/>
       <c r="B27" s="25" t="s">
         <v>69</v>
@@ -10104,7 +10104,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="25"/>
       <c r="B28" s="25" t="s">
         <v>70</v>
@@ -10113,7 +10113,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="25"/>
       <c r="B29" s="25" t="s">
         <v>71</v>
@@ -10122,7 +10122,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="25"/>
       <c r="B30" s="25" t="s">
         <v>72</v>
@@ -10131,22 +10131,22 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="25"/>
       <c r="B31" s="25"/>
       <c r="C31" s="25"/>
     </row>
-    <row r="32" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="25"/>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
     </row>
-    <row r="33" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="25"/>
       <c r="B33" s="25"/>
       <c r="C33" s="25"/>
     </row>
-    <row r="34" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="25"/>
       <c r="B34" s="25"/>
       <c r="C34" s="25"/>
@@ -10170,13 +10170,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.58203125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="22.625" style="16" customWidth="1"/>
     <col min="2" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>35</v>
       </c>
@@ -10184,17 +10184,17 @@
         <v>308</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>30</v>
       </c>
@@ -10202,7 +10202,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>31</v>
       </c>
@@ -10210,7 +10210,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>32</v>
       </c>
@@ -10218,7 +10218,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>39</v>
       </c>
@@ -10227,45 +10227,45 @@
       </c>
       <c r="C7" s="20"/>
     </row>
-    <row r="8" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>59</v>
       </c>
       <c r="B8" s="20"/>
     </row>
-    <row r="9" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="21"/>
     </row>
-    <row r="10" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="21"/>
     </row>
-    <row r="11" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="21"/>
     </row>
-    <row r="12" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="21"/>
     </row>
-    <row r="13" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="21"/>
     </row>
-    <row r="14" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="20"/>
     </row>
-    <row r="15" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="14"/>
     </row>
-    <row r="16" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="14"/>
     </row>
-    <row r="17" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>318</v>
       </c>
@@ -10273,7 +10273,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="16" t="s">
         <v>319</v>
       </c>
@@ -10281,7 +10281,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>320</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="16" t="s">
         <v>321</v>
       </c>
@@ -10297,7 +10297,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>322</v>
       </c>
@@ -10305,7 +10305,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
         <v>323</v>
       </c>
@@ -10332,14 +10332,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.5" style="16" customWidth="1"/>
     <col min="2" max="2" width="20.25" style="16" customWidth="1"/>
     <col min="3" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>35</v>
       </c>
@@ -10347,17 +10347,17 @@
         <v>325</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>30</v>
       </c>
@@ -10365,7 +10365,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>31</v>
       </c>
@@ -10373,7 +10373,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>32</v>
       </c>
@@ -10381,7 +10381,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>39</v>
       </c>
@@ -10390,13 +10390,13 @@
       </c>
       <c r="C7" s="20"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>59</v>
       </c>
       <c r="B8" s="20"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" s="16" t="s">
         <v>130</v>
       </c>
@@ -10404,7 +10404,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" s="16" t="s">
         <v>527</v>
       </c>
@@ -10412,7 +10412,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" s="16" t="s">
         <v>528</v>
       </c>
@@ -10420,7 +10420,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" s="16" t="s">
         <v>62</v>
       </c>
@@ -10428,75 +10428,75 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="20"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" s="15" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" s="15" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B17" s="15" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B19" s="14"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B20" s="14"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B21" s="14"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B22" s="14"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C24" s="16" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C25" s="16" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C26" s="16" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C27" s="16" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C28" s="16" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C29" s="16" t="s">
         <v>538</v>
       </c>
@@ -10520,14 +10520,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" style="16" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="16.875" style="16" customWidth="1"/>
     <col min="3" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>35</v>
       </c>
@@ -10535,17 +10535,17 @@
         <v>329</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>30</v>
       </c>
@@ -10553,7 +10553,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>31</v>
       </c>
@@ -10561,7 +10561,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>32</v>
       </c>
@@ -10569,7 +10569,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>39</v>
       </c>
@@ -10578,13 +10578,13 @@
       </c>
       <c r="C7" s="20"/>
     </row>
-    <row r="8" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>59</v>
       </c>
       <c r="B8" s="20"/>
     </row>
-    <row r="9" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16" t="s">
         <v>332</v>
       </c>
@@ -10593,7 +10593,7 @@
       </c>
       <c r="D9" s="21"/>
     </row>
-    <row r="10" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="16" t="s">
         <v>333</v>
       </c>
@@ -10601,7 +10601,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="16" t="s">
         <v>334</v>
       </c>
@@ -10609,7 +10609,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="16" t="s">
         <v>335</v>
       </c>
@@ -10617,45 +10617,45 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="21"/>
     </row>
-    <row r="14" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="20"/>
     </row>
-    <row r="15" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="14"/>
     </row>
-    <row r="16" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="14"/>
     </row>
-    <row r="17" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="14"/>
     </row>
-    <row r="18" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="14"/>
     </row>
-    <row r="19" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="14"/>
     </row>
-    <row r="20" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="14"/>
     </row>
-    <row r="21" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="14"/>
     </row>
-    <row r="22" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="14"/>
     </row>
-    <row r="23" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>318</v>
       </c>
@@ -10663,7 +10663,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
         <v>319</v>
       </c>
@@ -10671,7 +10671,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>320</v>
       </c>
@@ -10679,7 +10679,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
         <v>321</v>
       </c>
@@ -10687,7 +10687,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
         <v>322</v>
       </c>
@@ -10695,7 +10695,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="16" t="s">
         <v>323</v>
       </c>
@@ -10703,7 +10703,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="16" t="s">
         <v>349</v>
       </c>
@@ -10711,7 +10711,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="16" t="s">
         <v>350</v>
       </c>
@@ -10719,7 +10719,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
         <v>351</v>
       </c>
@@ -10727,7 +10727,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
         <v>352</v>
       </c>
@@ -10735,7 +10735,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="16" t="s">
         <v>353</v>
       </c>
@@ -10743,7 +10743,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="16" t="s">
         <v>354</v>
       </c>
@@ -10751,7 +10751,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="36" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="16" t="s">
         <v>355</v>
       </c>
@@ -10775,14 +10775,14 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" style="16" customWidth="1"/>
     <col min="2" max="2" width="26.75" style="16" customWidth="1"/>
     <col min="3" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>35</v>
       </c>
@@ -10790,17 +10790,17 @@
         <v>359</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>30</v>
       </c>
@@ -10808,7 +10808,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>31</v>
       </c>
@@ -10816,7 +10816,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>32</v>
       </c>
@@ -10824,7 +10824,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>39</v>
       </c>
@@ -10833,13 +10833,13 @@
       </c>
       <c r="C7" s="20"/>
     </row>
-    <row r="8" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>59</v>
       </c>
       <c r="B8" s="20"/>
     </row>
-    <row r="9" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="37" t="s">
         <v>332</v>
       </c>
@@ -10848,7 +10848,7 @@
       </c>
       <c r="D9" s="21"/>
     </row>
-    <row r="10" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="37" t="s">
         <v>364</v>
       </c>
@@ -10856,7 +10856,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="37" t="s">
         <v>365</v>
       </c>
@@ -10864,7 +10864,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="37" t="s">
         <v>366</v>
       </c>
@@ -10872,7 +10872,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="37" t="s">
         <v>367</v>
       </c>
@@ -10880,42 +10880,42 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="20"/>
     </row>
-    <row r="15" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="14"/>
     </row>
-    <row r="16" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="14"/>
     </row>
-    <row r="17" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="14"/>
     </row>
-    <row r="18" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="14"/>
     </row>
-    <row r="19" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="14"/>
     </row>
-    <row r="20" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="14"/>
     </row>
-    <row r="21" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="14"/>
     </row>
-    <row r="22" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="14"/>
     </row>
-    <row r="23" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>318</v>
       </c>
@@ -10923,7 +10923,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
         <v>319</v>
       </c>
@@ -10931,7 +10931,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>320</v>
       </c>
@@ -10939,7 +10939,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
         <v>321</v>
       </c>
@@ -10947,7 +10947,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
         <v>322</v>
       </c>
@@ -10955,7 +10955,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="16" t="s">
         <v>323</v>
       </c>
@@ -10963,7 +10963,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="16" t="s">
         <v>349</v>
       </c>
@@ -10971,7 +10971,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="16" t="s">
         <v>350</v>
       </c>
@@ -10979,7 +10979,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
         <v>351</v>
       </c>
@@ -10987,7 +10987,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
         <v>352</v>
       </c>
@@ -10995,7 +10995,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="16" t="s">
         <v>353</v>
       </c>
@@ -11003,7 +11003,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="16" t="s">
         <v>354</v>
       </c>
@@ -11011,7 +11011,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="36" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="16" t="s">
         <v>355</v>
       </c>
@@ -11035,14 +11035,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" style="16" customWidth="1"/>
     <col min="2" max="2" width="26.75" style="16" customWidth="1"/>
     <col min="3" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>35</v>
       </c>
@@ -11050,17 +11050,17 @@
         <v>380</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>30</v>
       </c>
@@ -11068,7 +11068,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>31</v>
       </c>
@@ -11076,7 +11076,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>32</v>
       </c>
@@ -11084,7 +11084,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>39</v>
       </c>
@@ -11093,13 +11093,13 @@
       </c>
       <c r="C7" s="20"/>
     </row>
-    <row r="8" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>59</v>
       </c>
       <c r="B8" s="20"/>
     </row>
-    <row r="9" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="37" t="s">
         <v>332</v>
       </c>
@@ -11108,7 +11108,7 @@
       </c>
       <c r="D9" s="21"/>
     </row>
-    <row r="10" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="37" t="s">
         <v>386</v>
       </c>
@@ -11116,7 +11116,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="37" t="s">
         <v>387</v>
       </c>
@@ -11124,7 +11124,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="37" t="s">
         <v>61</v>
       </c>
@@ -11132,7 +11132,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="37" t="s">
         <v>367</v>
       </c>
@@ -11140,42 +11140,42 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="20"/>
     </row>
-    <row r="15" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="14"/>
     </row>
-    <row r="16" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="14"/>
     </row>
-    <row r="17" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="14"/>
     </row>
-    <row r="18" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="14"/>
     </row>
-    <row r="19" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="14"/>
     </row>
-    <row r="20" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="14"/>
     </row>
-    <row r="21" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="14"/>
     </row>
-    <row r="22" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="14"/>
     </row>
-    <row r="23" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>318</v>
       </c>
@@ -11183,7 +11183,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
         <v>319</v>
       </c>
@@ -11191,7 +11191,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>320</v>
       </c>
@@ -11199,7 +11199,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
         <v>321</v>
       </c>
@@ -11207,7 +11207,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
         <v>322</v>
       </c>
@@ -11215,7 +11215,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="16" t="s">
         <v>323</v>
       </c>
@@ -11223,7 +11223,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="16" t="s">
         <v>349</v>
       </c>
@@ -11231,7 +11231,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="16" t="s">
         <v>350</v>
       </c>
@@ -11239,7 +11239,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
         <v>351</v>
       </c>
@@ -11247,7 +11247,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
         <v>352</v>
       </c>
@@ -11255,7 +11255,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="16" t="s">
         <v>353</v>
       </c>
@@ -11263,7 +11263,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="16" t="s">
         <v>354</v>
       </c>
@@ -11271,7 +11271,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="36" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="16" t="s">
         <v>355</v>
       </c>
@@ -11298,14 +11298,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" style="16" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="16.875" style="16" customWidth="1"/>
     <col min="3" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>35</v>
       </c>
@@ -11313,17 +11313,17 @@
         <v>402</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="35" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>30</v>
       </c>
@@ -11331,7 +11331,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>31</v>
       </c>
@@ -11339,7 +11339,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>32</v>
       </c>
@@ -11347,20 +11347,20 @@
         <v>404</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
     </row>
-    <row r="8" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>59</v>
       </c>
       <c r="B8" s="20"/>
     </row>
-    <row r="9" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16" t="s">
         <v>332</v>
       </c>
@@ -11369,7 +11369,7 @@
       </c>
       <c r="D9" s="21"/>
     </row>
-    <row r="10" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="16" t="s">
         <v>333</v>
       </c>
@@ -11377,7 +11377,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="16" t="s">
         <v>334</v>
       </c>
@@ -11385,7 +11385,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="16" t="s">
         <v>335</v>
       </c>
@@ -11393,7 +11393,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="16" t="s">
         <v>130</v>
       </c>
@@ -11401,82 +11401,82 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="20"/>
     </row>
-    <row r="15" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="14"/>
     </row>
-    <row r="16" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>40</v>
       </c>
       <c r="B16" s="14"/>
     </row>
-    <row r="17" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="14"/>
     </row>
-    <row r="18" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="14"/>
     </row>
-    <row r="19" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="14"/>
     </row>
-    <row r="20" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="14"/>
     </row>
-    <row r="21" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="14"/>
     </row>
-    <row r="22" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="14"/>
     </row>
-    <row r="23" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="16" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="16" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="16" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="16" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="16" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="16" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="16" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="16" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="16" t="s">
         <v>480</v>
       </c>
@@ -11497,14 +11497,14 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" style="16" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="16.875" style="16" customWidth="1"/>
     <col min="3" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>35</v>
       </c>
@@ -11512,15 +11512,15 @@
         <v>420</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="35" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19"/>
     </row>
-    <row r="4" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>30</v>
       </c>
@@ -11528,7 +11528,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>31</v>
       </c>
@@ -11536,7 +11536,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>32</v>
       </c>
@@ -11544,20 +11544,20 @@
         <v>455</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
     </row>
-    <row r="8" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>59</v>
       </c>
       <c r="B8" s="20"/>
     </row>
-    <row r="9" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16" t="s">
         <v>332</v>
       </c>
@@ -11566,7 +11566,7 @@
       </c>
       <c r="D9" s="21"/>
     </row>
-    <row r="10" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="16" t="s">
         <v>333</v>
       </c>
@@ -11574,7 +11574,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="16" t="s">
         <v>334</v>
       </c>
@@ -11582,7 +11582,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="16" t="s">
         <v>335</v>
       </c>
@@ -11590,7 +11590,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="16" t="s">
         <v>130</v>
       </c>
@@ -11598,194 +11598,194 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="20"/>
     </row>
-    <row r="15" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="14"/>
     </row>
-    <row r="16" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>40</v>
       </c>
       <c r="B16" s="14"/>
     </row>
-    <row r="17" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="16" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="16" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="16" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="16" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="16" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="16" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="33" spans="3:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="16" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="34" spans="3:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="16" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="35" spans="3:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="16" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="36" spans="3:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="16" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="37" spans="3:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="16" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="38" spans="3:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="16" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="39" spans="3:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="3:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="16" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="40" spans="3:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="3:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="16" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="41" spans="3:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="3:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="16" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="42" spans="3:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="3:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="16" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="43" spans="3:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="3:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="16" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="44" spans="3:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="3:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="16" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="45" spans="3:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="3:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="16" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="46" spans="3:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="3:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="16" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="47" spans="3:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="3:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="16" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="48" spans="3:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="3:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="16" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="49" spans="3:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="16" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="50" spans="3:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="3:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="16" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="51" spans="3:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="3:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="16" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="52" spans="3:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="3:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="16" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="53" spans="3:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="3:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="16" t="s">
         <v>454</v>
       </c>
@@ -11806,14 +11806,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" style="16" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="16.875" style="16" customWidth="1"/>
     <col min="3" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>35</v>
       </c>
@@ -11821,15 +11821,15 @@
         <v>407</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="35" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19"/>
     </row>
-    <row r="4" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>30</v>
       </c>
@@ -11837,7 +11837,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>31</v>
       </c>
@@ -11845,7 +11845,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>32</v>
       </c>
@@ -11853,20 +11853,20 @@
         <v>409</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
     </row>
-    <row r="8" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>59</v>
       </c>
       <c r="B8" s="20"/>
     </row>
-    <row r="9" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16" t="s">
         <v>332</v>
       </c>
@@ -11875,7 +11875,7 @@
       </c>
       <c r="D9" s="21"/>
     </row>
-    <row r="10" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="16" t="s">
         <v>333</v>
       </c>
@@ -11883,7 +11883,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="16" t="s">
         <v>334</v>
       </c>
@@ -11891,7 +11891,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="16" t="s">
         <v>335</v>
       </c>
@@ -11899,7 +11899,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="16" t="s">
         <v>130</v>
       </c>
@@ -11907,78 +11907,78 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="14"/>
     </row>
-    <row r="15" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
         <v>498</v>
       </c>
@@ -11999,15 +11999,15 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" style="16" customWidth="1"/>
-    <col min="2" max="2" width="20.58203125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="17.58203125" style="16" customWidth="1"/>
-    <col min="4" max="16384" width="8.58203125" style="16"/>
+    <col min="2" max="2" width="20.625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="17.625" style="16" customWidth="1"/>
+    <col min="4" max="16384" width="8.625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>35</v>
       </c>
@@ -12015,17 +12015,17 @@
         <v>727</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="28" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>30</v>
       </c>
@@ -12033,7 +12033,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>31</v>
       </c>
@@ -12042,7 +12042,7 @@
       </c>
       <c r="F5" s="89"/>
     </row>
-    <row r="6" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>32</v>
       </c>
@@ -12051,7 +12051,7 @@
       </c>
       <c r="F6" s="90"/>
     </row>
-    <row r="7" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>39</v>
       </c>
@@ -12060,13 +12060,13 @@
       </c>
       <c r="F7" s="90"/>
     </row>
-    <row r="8" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>59</v>
       </c>
       <c r="J8" s="37"/>
     </row>
-    <row r="9" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="21" t="s">
         <v>731</v>
       </c>
@@ -12076,7 +12076,7 @@
       <c r="H9" s="91"/>
       <c r="J9" s="37"/>
     </row>
-    <row r="10" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="21" t="s">
         <v>106</v>
       </c>
@@ -12086,30 +12086,30 @@
       <c r="H10" s="92"/>
       <c r="J10" s="37"/>
     </row>
-    <row r="11" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="H11" s="92"/>
       <c r="J11" s="37"/>
     </row>
-    <row r="12" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
       <c r="H12" s="92"/>
       <c r="J12" s="37"/>
     </row>
-    <row r="13" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="H13" s="91"/>
       <c r="J13" s="37"/>
     </row>
-    <row r="14" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="21"/>
       <c r="H14" s="91"/>
       <c r="J14" s="37"/>
     </row>
-    <row r="15" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="74" t="s">
         <v>40</v>
       </c>
@@ -12118,47 +12118,47 @@
       <c r="H15" s="91"/>
       <c r="J15" s="37"/>
     </row>
-    <row r="16" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="25"/>
       <c r="B16" s="76" t="s">
         <v>735</v>
       </c>
       <c r="C16" s="25"/>
     </row>
-    <row r="17" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="25"/>
       <c r="B17" s="76" t="s">
         <v>734</v>
       </c>
       <c r="C17" s="25"/>
     </row>
-    <row r="18" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="25"/>
       <c r="B18" s="76" t="s">
         <v>733</v>
       </c>
       <c r="C18" s="25"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="25"/>
       <c r="B19" s="76" t="s">
         <v>732</v>
       </c>
       <c r="C19" s="25"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="25"/>
       <c r="B20" s="76"/>
       <c r="C20" s="25"/>
     </row>
-    <row r="21" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="74" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
     </row>
-    <row r="22" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="25"/>
       <c r="B22" s="25" t="s">
         <v>64</v>
@@ -12167,7 +12167,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="25"/>
       <c r="B23" s="25" t="s">
         <v>65</v>
@@ -12176,7 +12176,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="25"/>
       <c r="B24" s="25" t="s">
         <v>66</v>
@@ -12185,7 +12185,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="25"/>
       <c r="B25" s="25" t="s">
         <v>67</v>
@@ -12194,7 +12194,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="25"/>
       <c r="B26" s="25" t="s">
         <v>68</v>
@@ -12203,7 +12203,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="25"/>
       <c r="B27" s="25" t="s">
         <v>69</v>
@@ -12212,7 +12212,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="25"/>
       <c r="B28" s="25" t="s">
         <v>70</v>
@@ -12221,32 +12221,32 @@
         <v>742</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="25"/>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
     </row>
-    <row r="30" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="25"/>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
     </row>
-    <row r="31" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="25"/>
       <c r="B31" s="25"/>
       <c r="C31" s="25"/>
     </row>
-    <row r="32" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="25"/>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
     </row>
-    <row r="33" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="25"/>
       <c r="B33" s="25"/>
       <c r="C33" s="25"/>
     </row>
-    <row r="34" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="25"/>
       <c r="B34" s="25"/>
       <c r="C34" s="25"/>
@@ -12270,15 +12270,15 @@
       <selection activeCell="B22" sqref="B22:B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" style="16" customWidth="1"/>
-    <col min="2" max="2" width="20.58203125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="17.58203125" style="16" customWidth="1"/>
-    <col min="4" max="16384" width="8.58203125" style="16"/>
+    <col min="2" max="2" width="20.625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="17.625" style="16" customWidth="1"/>
+    <col min="4" max="16384" width="8.625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>35</v>
       </c>
@@ -12286,15 +12286,15 @@
         <v>725</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="93" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19"/>
     </row>
-    <row r="4" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>30</v>
       </c>
@@ -12302,67 +12302,67 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>31</v>
       </c>
       <c r="F5" s="89"/>
     </row>
-    <row r="6" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="90"/>
     </row>
-    <row r="7" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="20"/>
       <c r="F7" s="90"/>
     </row>
-    <row r="8" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>59</v>
       </c>
       <c r="J8" s="37"/>
     </row>
-    <row r="9" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="H9" s="91"/>
       <c r="J9" s="37"/>
     </row>
-    <row r="10" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
       <c r="H10" s="92"/>
       <c r="J10" s="37"/>
     </row>
-    <row r="11" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="H11" s="92"/>
       <c r="J11" s="37"/>
     </row>
-    <row r="12" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
       <c r="H12" s="92"/>
       <c r="J12" s="37"/>
     </row>
-    <row r="13" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="H13" s="91"/>
       <c r="J13" s="37"/>
     </row>
-    <row r="14" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="21"/>
       <c r="H14" s="91"/>
       <c r="J14" s="37"/>
     </row>
-    <row r="15" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="74" t="s">
         <v>40</v>
       </c>
@@ -12371,107 +12371,107 @@
       <c r="H15" s="91"/>
       <c r="J15" s="37"/>
     </row>
-    <row r="16" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="25"/>
       <c r="B16" s="76" t="s">
         <v>745</v>
       </c>
       <c r="C16" s="25"/>
     </row>
-    <row r="17" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="25"/>
       <c r="B17" s="76" t="s">
         <v>746</v>
       </c>
       <c r="C17" s="25"/>
     </row>
-    <row r="18" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="25"/>
       <c r="B18" s="76" t="s">
         <v>747</v>
       </c>
       <c r="C18" s="25"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="25"/>
       <c r="B19" s="76" t="s">
         <v>748</v>
       </c>
       <c r="C19" s="25"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="25"/>
       <c r="B20" s="76"/>
       <c r="C20" s="25"/>
     </row>
-    <row r="21" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="74" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
     </row>
-    <row r="22" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="25"/>
       <c r="B22" s="25"/>
       <c r="C22" s="28"/>
     </row>
-    <row r="23" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
     </row>
-    <row r="24" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="25"/>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
     </row>
-    <row r="25" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="25"/>
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
     </row>
-    <row r="26" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="25"/>
       <c r="B26" s="25"/>
       <c r="C26" s="26"/>
     </row>
-    <row r="27" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="25"/>
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
     </row>
-    <row r="28" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="25"/>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
     </row>
-    <row r="29" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="25"/>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
     </row>
-    <row r="30" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="25"/>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
     </row>
-    <row r="31" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="25"/>
       <c r="B31" s="25"/>
       <c r="C31" s="25"/>
     </row>
-    <row r="32" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="25"/>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
     </row>
-    <row r="33" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="25"/>
       <c r="B33" s="25"/>
       <c r="C33" s="25"/>
     </row>
-    <row r="34" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="25"/>
       <c r="B34" s="25"/>
       <c r="C34" s="25"/>
@@ -12492,14 +12492,14 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" style="16" customWidth="1"/>
-    <col min="2" max="2" width="20.58203125" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="8.58203125" style="16"/>
+    <col min="2" max="2" width="20.625" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="8.625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>35</v>
       </c>
@@ -12507,17 +12507,17 @@
         <v>751</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="28" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="98" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>30</v>
       </c>
@@ -12525,12 +12525,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>32</v>
       </c>
@@ -12538,76 +12538,76 @@
         <v>753</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>59</v>
       </c>
       <c r="J8" s="37"/>
     </row>
-    <row r="9" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="J9" s="37"/>
     </row>
-    <row r="10" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
       <c r="J10" s="37"/>
     </row>
-    <row r="11" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="J11" s="37"/>
     </row>
-    <row r="12" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
       <c r="J12" s="37"/>
     </row>
-    <row r="13" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J13" s="37"/>
     </row>
-    <row r="14" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="J14" s="37"/>
     </row>
-    <row r="15" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="20"/>
       <c r="J15" s="37"/>
     </row>
-    <row r="16" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="17" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="18" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="21" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="23" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="24" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="25" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="25"/>
     </row>
-    <row r="26" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="27" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="29" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="30" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="22" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="22" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="26" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12624,14 +12624,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" style="16" customWidth="1"/>
-    <col min="2" max="2" width="20.58203125" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="8.58203125" style="16"/>
+    <col min="2" max="2" width="20.625" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="8.625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>35</v>
       </c>
@@ -12639,17 +12639,17 @@
         <v>755</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="28" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>30</v>
       </c>
@@ -12657,7 +12657,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>31</v>
       </c>
@@ -12665,7 +12665,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>32</v>
       </c>
@@ -12673,7 +12673,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>39</v>
       </c>
@@ -12681,13 +12681,13 @@
         <v>760</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>59</v>
       </c>
       <c r="J8" s="37"/>
     </row>
-    <row r="9" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="21" t="s">
         <v>756</v>
       </c>
@@ -12696,7 +12696,7 @@
       </c>
       <c r="J9" s="37"/>
     </row>
-    <row r="10" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="21" t="s">
         <v>758</v>
       </c>
@@ -12705,7 +12705,7 @@
       </c>
       <c r="J10" s="37"/>
     </row>
-    <row r="11" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="21" t="s">
         <v>757</v>
       </c>
@@ -12714,7 +12714,7 @@
       </c>
       <c r="J11" s="37"/>
     </row>
-    <row r="12" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="21" t="s">
         <v>106</v>
       </c>
@@ -12723,7 +12723,7 @@
       </c>
       <c r="J12" s="37"/>
     </row>
-    <row r="13" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="16" t="s">
         <v>130</v>
       </c>
@@ -12732,7 +12732,7 @@
       </c>
       <c r="J13" s="37"/>
     </row>
-    <row r="14" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="21" t="s">
         <v>129</v>
       </c>
@@ -12741,22 +12741,22 @@
       </c>
       <c r="J14" s="37"/>
     </row>
-    <row r="15" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="20"/>
       <c r="J15" s="37"/>
     </row>
-    <row r="16" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="17" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="18" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="21" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>64</v>
       </c>
@@ -12764,7 +12764,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
         <v>65</v>
       </c>
@@ -12772,7 +12772,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>66</v>
       </c>
@@ -12780,7 +12780,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
         <v>67</v>
       </c>
@@ -12788,7 +12788,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>68</v>
       </c>
@@ -12796,7 +12796,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
         <v>69</v>
       </c>
@@ -12804,7 +12804,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
         <v>70</v>
       </c>
@@ -12812,7 +12812,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="16" t="s">
         <v>71</v>
       </c>
@@ -12820,7 +12820,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="16" t="s">
         <v>72</v>
       </c>
@@ -12828,7 +12828,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="16" t="s">
         <v>73</v>
       </c>
@@ -12836,7 +12836,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
         <v>74</v>
       </c>
@@ -12844,7 +12844,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
         <v>75</v>
       </c>
@@ -12852,7 +12852,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="16" t="s">
         <v>76</v>
       </c>
@@ -12860,7 +12860,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" s="16" t="s">
         <v>243</v>
       </c>
@@ -12868,7 +12868,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="16" t="s">
         <v>776</v>
       </c>
@@ -12876,7 +12876,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
         <v>777</v>
       </c>
@@ -12903,14 +12903,14 @@
       <selection activeCell="E19" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" style="16" customWidth="1"/>
-    <col min="2" max="2" width="20.58203125" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="8.58203125" style="16"/>
+    <col min="2" max="2" width="20.625" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="8.625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>35</v>
       </c>
@@ -12918,100 +12918,100 @@
         <v>783</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="28" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19"/>
     </row>
-    <row r="4" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>59</v>
       </c>
       <c r="J8" s="37"/>
     </row>
-    <row r="9" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="J9" s="37"/>
     </row>
-    <row r="10" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
       <c r="J10" s="37"/>
     </row>
-    <row r="11" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="J11" s="37"/>
     </row>
-    <row r="12" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
       <c r="J12" s="37"/>
     </row>
-    <row r="13" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="21"/>
       <c r="J13" s="37"/>
     </row>
-    <row r="14" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="J14" s="37"/>
     </row>
-    <row r="15" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="20"/>
       <c r="J15" s="37"/>
     </row>
-    <row r="16" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="17" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="18" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="21" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="23" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="24" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="25" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="25"/>
     </row>
-    <row r="26" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="27" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="29" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="30" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="22" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="26" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13028,14 +13028,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" style="16" customWidth="1"/>
-    <col min="2" max="2" width="28.08203125" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="8.58203125" style="16"/>
+    <col min="2" max="2" width="28.125" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="8.625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>35</v>
       </c>
@@ -13043,15 +13043,15 @@
         <v>788</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="93" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19"/>
     </row>
-    <row r="4" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>30</v>
       </c>
@@ -13059,7 +13059,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>31</v>
       </c>
@@ -13067,7 +13067,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>32</v>
       </c>
@@ -13075,7 +13075,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>39</v>
       </c>
@@ -13083,13 +13083,13 @@
         <v>785</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>59</v>
       </c>
       <c r="J8" s="37"/>
     </row>
-    <row r="9" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="21" t="s">
         <v>106</v>
       </c>
@@ -13098,7 +13098,7 @@
       </c>
       <c r="J9" s="37"/>
     </row>
-    <row r="10" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="21" t="s">
         <v>61</v>
       </c>
@@ -13107,7 +13107,7 @@
       </c>
       <c r="J10" s="37"/>
     </row>
-    <row r="11" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="21" t="s">
         <v>105</v>
       </c>
@@ -13116,7 +13116,7 @@
       </c>
       <c r="J11" s="37"/>
     </row>
-    <row r="12" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="21" t="s">
         <v>791</v>
       </c>
@@ -13125,7 +13125,7 @@
       </c>
       <c r="J12" s="37"/>
     </row>
-    <row r="13" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="16" t="s">
         <v>792</v>
       </c>
@@ -13134,7 +13134,7 @@
       </c>
       <c r="J13" s="37"/>
     </row>
-    <row r="14" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="21" t="s">
         <v>129</v>
       </c>
@@ -13143,7 +13143,7 @@
       </c>
       <c r="J14" s="37"/>
     </row>
-    <row r="15" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="101" t="s">
         <v>793</v>
       </c>
@@ -13152,58 +13152,58 @@
       </c>
       <c r="J15" s="37"/>
     </row>
-    <row r="16" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="16" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B19" s="16" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="16" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="23" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="25"/>
     </row>
-    <row r="26" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>64</v>
       </c>
@@ -13211,7 +13211,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
         <v>65</v>
       </c>
@@ -13219,7 +13219,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
         <v>66</v>
       </c>
@@ -13227,7 +13227,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="16" t="s">
         <v>67</v>
       </c>
@@ -13235,7 +13235,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="16" t="s">
         <v>68</v>
       </c>
@@ -13243,7 +13243,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="16" t="s">
         <v>69</v>
       </c>
@@ -13251,7 +13251,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
         <v>70</v>
       </c>
@@ -13259,7 +13259,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
         <v>71</v>
       </c>
@@ -13267,7 +13267,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="16" t="s">
         <v>72</v>
       </c>
@@ -13275,7 +13275,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" s="16" t="s">
         <v>73</v>
       </c>
@@ -13283,7 +13283,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="16" t="s">
         <v>74</v>
       </c>
@@ -13291,7 +13291,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
         <v>75</v>
       </c>
@@ -13299,7 +13299,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" s="16" t="s">
         <v>76</v>
       </c>
@@ -13307,7 +13307,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39" s="16" t="s">
         <v>243</v>
       </c>
@@ -13315,7 +13315,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" s="16" t="s">
         <v>776</v>
       </c>
@@ -13323,7 +13323,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" s="16" t="s">
         <v>777</v>
       </c>
